--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Program\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7AB4B1-EF14-4466-A9F2-1D2A5B78B52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB4E85D-74F9-4965-AFC4-3E2FC80EA42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2882,7 +2882,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35649,8 +35649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="94" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Program\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB4E85D-74F9-4965-AFC4-3E2FC80EA42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B95700-8973-4B39-A855-64CB70F443E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -3242,15 +3242,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35649,8 +35649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="94" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Program\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B95700-8973-4B39-A855-64CB70F443E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF3535A-AB63-43B6-A61C-C86F8873430C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$4:$C$136</definedName>
+    <definedName name="options">Sheet1!$A$488:$A$491</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="468">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1418,6 +1422,18 @@
   <si>
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
   </si>
+  <si>
+    <t xml:space="preserve">revist </t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Revisit</t>
+  </si>
 </sst>
 </file>
 
@@ -1486,12 +1502,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1507,7 +1529,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1531,6 +1553,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1554,7 +1577,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp100.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1598,7 +1621,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp110.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1730,7 +1753,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp140.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1906,7 +1929,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp180.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1950,7 +1973,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp190.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2086,7 +2109,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp220.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2130,7 +2153,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp230.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2262,7 +2285,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp260.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2350,7 +2373,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp280.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2662,7 +2685,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp350.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2706,7 +2729,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp360.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3410,7 +3433,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp90.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35647,10 +35670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:D491"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -35660,17 +35683,17 @@
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.6">
+    <row r="1" spans="1:4" ht="24.6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="B2" s="10" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21">
+    <row r="4" spans="1:4" ht="21">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -35681,10 +35704,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="21">
+    <row r="6" spans="1:4" ht="21">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -35692,8 +35715,11 @@
         <v>5</v>
       </c>
       <c r="C6" s="4"/>
+      <c r="D6" t="s">
+        <v>465</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" ht="21">
+    <row r="7" spans="1:4" ht="21">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -35702,7 +35728,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="21">
+    <row r="8" spans="1:4" ht="21">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -35711,7 +35737,7 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" ht="21">
+    <row r="9" spans="1:4" ht="21">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
@@ -35720,7 +35746,7 @@
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" ht="21">
+    <row r="10" spans="1:4" ht="21">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -35729,7 +35755,7 @@
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" ht="21">
+    <row r="11" spans="1:4" ht="21">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
@@ -35738,7 +35764,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" ht="21">
+    <row r="12" spans="1:4" ht="21">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -35747,7 +35773,7 @@
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" ht="21">
+    <row r="13" spans="1:4" ht="21">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
@@ -35756,7 +35782,7 @@
       </c>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" ht="21">
+    <row r="14" spans="1:4" ht="21">
       <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
@@ -35765,7 +35791,7 @@
       </c>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" ht="21">
+    <row r="15" spans="1:4" ht="21">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -35774,7 +35800,7 @@
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" ht="21">
+    <row r="16" spans="1:4" ht="21">
       <c r="A16" s="5" t="s">
         <v>4</v>
       </c>
@@ -35783,7 +35809,7 @@
       </c>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" ht="21">
+    <row r="17" spans="1:4" ht="21">
       <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
@@ -35792,7 +35818,7 @@
       </c>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" ht="21">
+    <row r="18" spans="1:4" ht="21">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
@@ -35801,7 +35827,7 @@
       </c>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" ht="21">
+    <row r="19" spans="1:4" ht="21">
       <c r="A19" s="5" t="s">
         <v>4</v>
       </c>
@@ -35810,7 +35836,7 @@
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" ht="21">
+    <row r="20" spans="1:4" ht="21">
       <c r="A20" s="5" t="s">
         <v>4</v>
       </c>
@@ -35819,7 +35845,7 @@
       </c>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" ht="21">
+    <row r="21" spans="1:4" ht="21">
       <c r="A21" s="5" t="s">
         <v>4</v>
       </c>
@@ -35828,7 +35854,7 @@
       </c>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" ht="21">
+    <row r="22" spans="1:4" ht="21">
       <c r="A22" s="5" t="s">
         <v>4</v>
       </c>
@@ -35837,7 +35863,7 @@
       </c>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" ht="21">
+    <row r="23" spans="1:4" ht="21">
       <c r="A23" s="5" t="s">
         <v>4</v>
       </c>
@@ -35846,7 +35872,7 @@
       </c>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" ht="21">
+    <row r="24" spans="1:4" ht="21">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -35855,7 +35881,7 @@
       </c>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3" ht="21">
+    <row r="25" spans="1:4" ht="21">
       <c r="A25" s="5" t="s">
         <v>4</v>
       </c>
@@ -35864,7 +35890,7 @@
       </c>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3" ht="21">
+    <row r="26" spans="1:4" ht="21">
       <c r="A26" s="5" t="s">
         <v>4</v>
       </c>
@@ -35873,7 +35899,7 @@
       </c>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:3" ht="21">
+    <row r="27" spans="1:4" ht="21">
       <c r="A27" s="5" t="s">
         <v>4</v>
       </c>
@@ -35881,8 +35907,11 @@
         <v>26</v>
       </c>
       <c r="C27" s="4"/>
+      <c r="D27" t="s">
+        <v>466</v>
+      </c>
     </row>
-    <row r="28" spans="1:3" ht="21">
+    <row r="28" spans="1:4" ht="21">
       <c r="A28" s="5" t="s">
         <v>4</v>
       </c>
@@ -35890,8 +35919,11 @@
         <v>27</v>
       </c>
       <c r="C28" s="4"/>
+      <c r="D28" t="s">
+        <v>466</v>
+      </c>
     </row>
-    <row r="29" spans="1:3" ht="21">
+    <row r="29" spans="1:4" ht="21">
       <c r="A29" s="5" t="s">
         <v>4</v>
       </c>
@@ -35900,7 +35932,7 @@
       </c>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:3" ht="21">
+    <row r="30" spans="1:4" ht="21">
       <c r="A30" s="5" t="s">
         <v>4</v>
       </c>
@@ -35909,7 +35941,7 @@
       </c>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:3" ht="21">
+    <row r="31" spans="1:4" ht="21">
       <c r="A31" s="5" t="s">
         <v>4</v>
       </c>
@@ -35918,7 +35950,7 @@
       </c>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:3" ht="21">
+    <row r="32" spans="1:4" ht="21">
       <c r="A32" s="5" t="s">
         <v>4</v>
       </c>
@@ -36895,7 +36927,7 @@
       </c>
       <c r="C144" s="4"/>
     </row>
-    <row r="145" spans="1:3" ht="21">
+    <row r="145" spans="1:4" ht="21">
       <c r="A145" s="8" t="s">
         <v>133</v>
       </c>
@@ -36904,7 +36936,7 @@
       </c>
       <c r="C145" s="4"/>
     </row>
-    <row r="146" spans="1:3" ht="21">
+    <row r="146" spans="1:4" ht="21">
       <c r="A146" s="8" t="s">
         <v>133</v>
       </c>
@@ -36913,7 +36945,7 @@
       </c>
       <c r="C146" s="4"/>
     </row>
-    <row r="147" spans="1:3" ht="21">
+    <row r="147" spans="1:4" ht="21">
       <c r="A147" s="8" t="s">
         <v>133</v>
       </c>
@@ -36922,7 +36954,7 @@
       </c>
       <c r="C147" s="4"/>
     </row>
-    <row r="148" spans="1:3" ht="21">
+    <row r="148" spans="1:4" ht="21">
       <c r="A148" s="8" t="s">
         <v>133</v>
       </c>
@@ -36931,7 +36963,7 @@
       </c>
       <c r="C148" s="4"/>
     </row>
-    <row r="149" spans="1:3" ht="21">
+    <row r="149" spans="1:4" ht="21">
       <c r="A149" s="8" t="s">
         <v>133</v>
       </c>
@@ -36940,7 +36972,7 @@
       </c>
       <c r="C149" s="4"/>
     </row>
-    <row r="150" spans="1:3" ht="21">
+    <row r="150" spans="1:4" ht="21">
       <c r="A150" s="8" t="s">
         <v>133</v>
       </c>
@@ -36949,7 +36981,7 @@
       </c>
       <c r="C150" s="4"/>
     </row>
-    <row r="151" spans="1:3" ht="21">
+    <row r="151" spans="1:4" ht="21">
       <c r="A151" s="8" t="s">
         <v>133</v>
       </c>
@@ -36958,7 +36990,7 @@
       </c>
       <c r="C151" s="4"/>
     </row>
-    <row r="152" spans="1:3" ht="21">
+    <row r="152" spans="1:4" ht="21">
       <c r="A152" s="8" t="s">
         <v>133</v>
       </c>
@@ -36967,7 +36999,7 @@
       </c>
       <c r="C152" s="4"/>
     </row>
-    <row r="153" spans="1:3" ht="21">
+    <row r="153" spans="1:4" ht="21">
       <c r="A153" s="8" t="s">
         <v>133</v>
       </c>
@@ -36975,8 +37007,11 @@
         <v>148</v>
       </c>
       <c r="C153" s="4"/>
+      <c r="D153" t="s">
+        <v>464</v>
+      </c>
     </row>
-    <row r="154" spans="1:3" ht="21">
+    <row r="154" spans="1:4" ht="21">
       <c r="A154" s="8" t="s">
         <v>133</v>
       </c>
@@ -36985,7 +37020,7 @@
       </c>
       <c r="C154" s="4"/>
     </row>
-    <row r="155" spans="1:3" ht="21">
+    <row r="155" spans="1:4" ht="21">
       <c r="A155" s="8" t="s">
         <v>133</v>
       </c>
@@ -36994,7 +37029,7 @@
       </c>
       <c r="C155" s="4"/>
     </row>
-    <row r="156" spans="1:3" ht="21">
+    <row r="156" spans="1:4" ht="21">
       <c r="A156" s="8" t="s">
         <v>133</v>
       </c>
@@ -37003,7 +37038,7 @@
       </c>
       <c r="C156" s="4"/>
     </row>
-    <row r="157" spans="1:3" ht="21">
+    <row r="157" spans="1:4" ht="21">
       <c r="A157" s="8" t="s">
         <v>133</v>
       </c>
@@ -37012,7 +37047,7 @@
       </c>
       <c r="C157" s="4"/>
     </row>
-    <row r="158" spans="1:3" ht="21">
+    <row r="158" spans="1:4" ht="21">
       <c r="A158" s="8" t="s">
         <v>133</v>
       </c>
@@ -37021,7 +37056,7 @@
       </c>
       <c r="C158" s="4"/>
     </row>
-    <row r="159" spans="1:3" ht="21">
+    <row r="159" spans="1:4" ht="21">
       <c r="A159" s="8" t="s">
         <v>133</v>
       </c>
@@ -37030,7 +37065,7 @@
       </c>
       <c r="C159" s="4"/>
     </row>
-    <row r="160" spans="1:3" ht="21">
+    <row r="160" spans="1:4" ht="21">
       <c r="A160" s="8" t="s">
         <v>133</v>
       </c>
@@ -39830,7 +39865,31 @@
       </c>
       <c r="C481" s="4"/>
     </row>
+    <row r="488" spans="1:3">
+      <c r="A488" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" s="11" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" s="11" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" s="11"/>
+    </row>
   </sheetData>
+  <autoFilter ref="C4:C136" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D481" xr:uid="{C2D2F78D-D301-4709-B536-918BF35F26E7}">
+      <formula1>options</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>
     <hyperlink ref="B7" r:id="rId2" xr:uid="{2D6F1134-3C08-7445-B19A-9B94A18B55C7}"/>
